--- a/篮协费用.xlsx
+++ b/篮协费用.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138">
   <si>
     <t>篮协经费明细（红色表示剩余钱数，黑色表示欠款）</t>
   </si>
@@ -373,6 +373,9 @@
     <t>姚文达、谷世宁、赵海南、杨玺坤、邱超、董亚清（空港体育馆）</t>
   </si>
   <si>
+    <t>朱文浩、邱超、谷世宁、杨喜坤、董亚清、李铭（空港体育馆，本次自己冲卡500元）</t>
+  </si>
+  <si>
     <t>篮协经费明细</t>
   </si>
   <si>
@@ -450,11 +453,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="7" formatCode="&quot;￥&quot;#,##0.00;&quot;￥&quot;\-#,##0.00"/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="30">
@@ -530,38 +533,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -575,16 +549,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -600,8 +587,69 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -616,52 +664,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -688,7 +691,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,7 +709,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -712,19 +769,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -736,19 +799,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -760,13 +811,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -778,49 +847,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -832,43 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,7 +1034,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1051,6 +1054,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1066,13 +1078,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1094,169 +1110,156 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="32" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1794,7 +1797,7 @@
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F164" sqref="F164"/>
+      <selection pane="bottomLeft" activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1945,15 +1948,15 @@
       </c>
       <c r="E5" s="62">
         <f t="shared" ref="C5:N5" si="0">SUM(E31:E973)</f>
-        <v>-13</v>
+        <v>-3</v>
       </c>
       <c r="F5" s="62">
         <f t="shared" si="0"/>
-        <v>106.15</v>
+        <v>116.15</v>
       </c>
       <c r="G5" s="62">
         <f t="shared" si="0"/>
-        <v>-22.25</v>
+        <v>-12.25</v>
       </c>
       <c r="H5" s="62">
         <f t="shared" si="0"/>
@@ -1969,7 +1972,7 @@
       </c>
       <c r="K5" s="62">
         <f t="shared" si="0"/>
-        <v>-80</v>
+        <v>-70</v>
       </c>
       <c r="L5" s="62">
         <f t="shared" si="0"/>
@@ -1985,11 +1988,11 @@
       </c>
       <c r="O5" s="62">
         <f>SUM(O31:O973)</f>
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="P5" s="62">
         <f>SUM(P31:P973)</f>
-        <v>-70</v>
+        <v>-60</v>
       </c>
       <c r="Q5" s="79"/>
       <c r="R5" s="79"/>
@@ -3450,7 +3453,6 @@
       <c r="B53" s="53">
         <v>42551</v>
       </c>
-      <c r="C53" s="54"/>
       <c r="D53" s="18">
         <v>7.5</v>
       </c>
@@ -4083,7 +4085,6 @@
       <c r="B78" s="53">
         <v>42636</v>
       </c>
-      <c r="C78" s="54"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
       <c r="F78" s="18">
@@ -4191,7 +4192,6 @@
       <c r="B82" s="53">
         <v>42652</v>
       </c>
-      <c r="C82" s="54"/>
       <c r="D82" s="18">
         <v>6.25</v>
       </c>
@@ -4525,7 +4525,6 @@
       <c r="B94" s="53">
         <v>42690</v>
       </c>
-      <c r="C94" s="54"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18"/>
       <c r="F94" s="18"/>
@@ -4734,7 +4733,6 @@
       <c r="B103" s="53">
         <v>42775</v>
       </c>
-      <c r="C103" s="54"/>
       <c r="D103" s="18"/>
       <c r="E103" s="18"/>
       <c r="F103" s="18">
@@ -4783,7 +4781,6 @@
       <c r="B105" s="53">
         <v>42789</v>
       </c>
-      <c r="C105" s="54"/>
       <c r="D105" s="18"/>
       <c r="E105" s="18"/>
       <c r="F105" s="18">
@@ -4944,7 +4941,6 @@
       <c r="B111" s="53">
         <v>42818</v>
       </c>
-      <c r="C111" s="54"/>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
       <c r="F111" s="18">
@@ -5012,7 +5008,6 @@
       <c r="B114" s="53">
         <v>42831</v>
       </c>
-      <c r="C114" s="54"/>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="18">
@@ -5323,7 +5318,6 @@
       <c r="B126" s="53">
         <v>43167</v>
       </c>
-      <c r="C126" s="54"/>
       <c r="D126" s="18"/>
       <c r="E126" s="18">
         <v>5</v>
@@ -5420,7 +5414,6 @@
       <c r="B130" s="53">
         <v>43181</v>
       </c>
-      <c r="C130" s="54"/>
       <c r="D130" s="18"/>
       <c r="E130" s="18">
         <v>6</v>
@@ -5492,7 +5485,6 @@
       <c r="B133" s="53">
         <v>43188</v>
       </c>
-      <c r="C133" s="54"/>
       <c r="D133" s="18"/>
       <c r="E133" s="18">
         <v>6</v>
@@ -5522,7 +5514,6 @@
       <c r="B134" s="53">
         <v>43202</v>
       </c>
-      <c r="C134" s="54"/>
       <c r="D134" s="18"/>
       <c r="E134" s="18">
         <v>5</v>
@@ -5603,7 +5594,6 @@
       <c r="B137" s="53">
         <v>43244</v>
       </c>
-      <c r="C137" s="54"/>
       <c r="D137" s="18">
         <v>14</v>
       </c>
@@ -5657,7 +5647,6 @@
       <c r="B139" s="53">
         <v>43257</v>
       </c>
-      <c r="C139" s="54"/>
       <c r="D139" s="18">
         <v>10</v>
       </c>
@@ -5715,7 +5704,6 @@
       <c r="B141" s="53">
         <v>43286</v>
       </c>
-      <c r="C141" s="54"/>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="18">
@@ -5743,7 +5731,6 @@
       <c r="B142" s="53">
         <v>43328</v>
       </c>
-      <c r="C142" s="54"/>
       <c r="D142" s="18"/>
       <c r="E142" s="18"/>
       <c r="F142" s="18">
@@ -5908,7 +5895,6 @@
       <c r="B148" s="53">
         <v>43530</v>
       </c>
-      <c r="C148" s="54"/>
       <c r="D148" s="18"/>
       <c r="E148" s="18">
         <v>-100</v>
@@ -6013,7 +5999,6 @@
       <c r="B150" s="53">
         <v>43572</v>
       </c>
-      <c r="C150" s="54"/>
       <c r="D150" s="18"/>
       <c r="E150" s="18">
         <v>-10</v>
@@ -6062,7 +6047,6 @@
       <c r="B151" s="53">
         <v>43572</v>
       </c>
-      <c r="C151" s="54"/>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
       <c r="F151" s="18">
@@ -6121,7 +6105,6 @@
       <c r="B152" s="53">
         <v>43579</v>
       </c>
-      <c r="C152" s="54"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
       <c r="F152" s="18">
@@ -6166,7 +6149,6 @@
       <c r="B153" s="53">
         <v>43579</v>
       </c>
-      <c r="C153" s="54"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
       <c r="F153" s="18">
@@ -6264,7 +6246,6 @@
       <c r="B155" s="53">
         <v>43584</v>
       </c>
-      <c r="C155" s="54"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
       <c r="F155" s="18">
@@ -6352,7 +6333,6 @@
       <c r="B157" s="53">
         <v>43608</v>
       </c>
-      <c r="C157" s="54"/>
       <c r="D157" s="18"/>
       <c r="E157" s="18"/>
       <c r="F157" s="18">
@@ -6432,7 +6412,6 @@
       <c r="B159" s="53">
         <v>43613</v>
       </c>
-      <c r="C159" s="54"/>
       <c r="D159" s="18"/>
       <c r="E159" s="18">
         <v>25</v>
@@ -6514,7 +6493,6 @@
       <c r="B161" s="53">
         <v>43621</v>
       </c>
-      <c r="C161" s="54"/>
       <c r="D161" s="18"/>
       <c r="E161" s="18">
         <v>20</v>
@@ -6619,7 +6597,6 @@
       <c r="B163" s="53">
         <v>43628</v>
       </c>
-      <c r="C163" s="54"/>
       <c r="D163" s="18"/>
       <c r="E163" s="18"/>
       <c r="F163" s="18">
@@ -6719,7 +6696,6 @@
       <c r="B165" s="53">
         <v>43635</v>
       </c>
-      <c r="C165" s="54"/>
       <c r="D165" s="18"/>
       <c r="E165" s="18">
         <v>20</v>
@@ -6826,7 +6802,6 @@
       <c r="B167" s="53">
         <v>43635</v>
       </c>
-      <c r="C167" s="54"/>
       <c r="D167" s="18"/>
       <c r="E167" s="18"/>
       <c r="F167" s="18"/>
@@ -6917,7 +6892,9 @@
       <c r="I169" s="18">
         <v>-10</v>
       </c>
-      <c r="O169" s="18"/>
+      <c r="O169" s="18">
+        <v>-20</v>
+      </c>
       <c r="Q169" s="18">
         <f t="shared" ref="Q168:Q185" si="6">IF(R169&gt;0,T169/R169,0)</f>
         <v>0</v>
@@ -6933,39 +6910,102 @@
       </c>
       <c r="U169" s="18"/>
     </row>
-    <row r="170" spans="17:21">
+    <row r="170" customFormat="1" spans="1:22">
+      <c r="A170" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B170" s="53">
+        <v>43663</v>
+      </c>
+      <c r="C170" s="54"/>
+      <c r="D170" s="4"/>
+      <c r="E170" s="54">
+        <v>20</v>
+      </c>
+      <c r="F170" s="54">
+        <v>20</v>
+      </c>
+      <c r="G170" s="54">
+        <v>20</v>
+      </c>
+      <c r="H170" s="4"/>
+      <c r="I170" s="54"/>
+      <c r="J170" s="4"/>
+      <c r="K170" s="18">
+        <v>20</v>
+      </c>
+      <c r="L170" s="4"/>
+      <c r="M170" s="4"/>
+      <c r="N170" s="4"/>
+      <c r="O170" s="54">
+        <v>20</v>
+      </c>
+      <c r="P170" s="18">
+        <v>20</v>
+      </c>
       <c r="Q170" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R170" s="18"/>
+        <v>20</v>
+      </c>
+      <c r="R170" s="18">
+        <v>5</v>
+      </c>
       <c r="S170">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="T170" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U170" s="18"/>
-    </row>
-    <row r="171" spans="17:21">
-      <c r="Q171" s="18">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="R171" s="18"/>
+        <v>120</v>
+      </c>
+      <c r="U170" s="18">
+        <v>120</v>
+      </c>
+      <c r="V170" s="7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="171" spans="1:22">
+      <c r="A171" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C171" s="18"/>
+      <c r="E171" s="18">
+        <v>-10</v>
+      </c>
+      <c r="F171" s="18">
+        <v>-10</v>
+      </c>
+      <c r="G171" s="18">
+        <v>-10</v>
+      </c>
+      <c r="I171" s="18"/>
+      <c r="K171" s="18">
+        <v>-10</v>
+      </c>
+      <c r="O171" s="18">
+        <v>-20</v>
+      </c>
+      <c r="P171" s="18">
+        <v>-10</v>
+      </c>
+      <c r="Q171" s="18"/>
+      <c r="R171" s="18">
+        <v>5</v>
+      </c>
       <c r="S171">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>10*R171</f>
+        <v>50</v>
       </c>
       <c r="T171" s="18">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="U171" s="18"/>
-    </row>
-    <row r="172" spans="17:21">
+        <v>120</v>
+      </c>
+      <c r="U171" s="18">
+        <v>120</v>
+      </c>
+      <c r="V171" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="172" spans="16:21">
+      <c r="P172" s="18"/>
       <c r="Q172" s="18">
         <f t="shared" si="6"/>
         <v>0</v>
@@ -43844,7 +43884,7 @@
     <row r="3" ht="20.25" spans="1:15">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
@@ -43864,7 +43904,7 @@
       <c r="A4" s="7"/>
       <c r="B4" s="10"/>
       <c r="C4" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D4" s="11" t="s">
         <v>2</v>
@@ -43876,22 +43916,22 @@
         <v>4</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J4" s="20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K4" s="21" t="s">
         <v>21</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="32"/>
@@ -43951,13 +43991,13 @@
       <c r="I6" s="13"/>
       <c r="J6" s="13"/>
       <c r="K6" s="24" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="L6" s="24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="M6" s="37" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="N6" s="38"/>
       <c r="O6" s="33"/>
@@ -45129,7 +45169,7 @@
       </c>
       <c r="J54" s="18"/>
       <c r="L54" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="M54" s="41" t="s">
         <v>56</v>
@@ -45573,7 +45613,7 @@
       <c r="G78" s="18"/>
       <c r="H78" s="18"/>
       <c r="L78" s="43" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="M78" s="44" t="s">
         <v>4</v>
@@ -45606,7 +45646,7 @@
       <c r="G80" s="18"/>
       <c r="H80" s="18"/>
       <c r="L80" s="43" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M80" s="44" t="s">
         <v>67</v>
@@ -45639,7 +45679,7 @@
       </c>
       <c r="H82" s="18"/>
       <c r="L82" s="43" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M82" s="44" t="s">
         <v>68</v>
@@ -46095,7 +46135,7 @@
       <c r="G113" s="18"/>
       <c r="H113" s="18"/>
       <c r="L113" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="114" spans="2:14">
@@ -46280,7 +46320,7 @@
       <c r="G123" s="18"/>
       <c r="H123" s="18"/>
       <c r="L123" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N123" s="4"/>
     </row>
@@ -46323,7 +46363,7 @@
         <v>-40</v>
       </c>
       <c r="M125" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N125" s="4"/>
     </row>
@@ -46433,7 +46473,7 @@
       <c r="G132" s="18"/>
       <c r="H132" s="18"/>
       <c r="L132" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="2:13">
@@ -46589,7 +46629,7 @@
       <c r="G140" s="18"/>
       <c r="H140" s="18"/>
       <c r="L140" s="6" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="M140" s="7" t="s">
         <v>97</v>
@@ -47030,10 +47070,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C1">
         <v>79.25</v>
@@ -47044,7 +47084,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>40.9</v>
@@ -47052,10 +47092,10 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" t="s">
         <v>134</v>
-      </c>
-      <c r="B3" t="s">
-        <v>133</v>
       </c>
       <c r="C3">
         <v>14</v>
@@ -47063,10 +47103,10 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>27.75</v>
@@ -47074,10 +47114,10 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5">
         <v>25.15</v>
